--- a/data/trans_dic/P64D$otros_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P64D$otros_2023-Provincia-trans_dic.xlsx
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0217247465128518</v>
+        <v>0.0211856730592211</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.01261889667279699</v>
+        <v>0.01447471230010779</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>0.01892426135481216</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.02230992392592784</v>
+        <v>0.02230992392592783</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006000334987151815</v>
+        <v>0.005873167055793372</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003805554038733281</v>
+        <v>0.003792933001560467</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.009317152171633687</v>
+        <v>0.009711076284905315</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05758204524714382</v>
+        <v>0.05900711443239858</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05179609926064863</v>
+        <v>0.05660802212401371</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04476402672249161</v>
+        <v>0.04504476053057237</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.02381515298439403</v>
+        <v>0.02381515298439402</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0</v>
@@ -687,11 +687,11 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005966062580286512</v>
+        <v>0.005943959403040787</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.003280070958791633</v>
+        <v>0.003260831101750997</v>
       </c>
     </row>
     <row r="12">
@@ -702,11 +702,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05455985001492435</v>
+        <v>0.06041154005912714</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.03044935571164501</v>
+        <v>0.03325473809185493</v>
       </c>
     </row>
     <row r="13">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.0224432511795319</v>
+        <v>0.02244325117953191</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0</v>
@@ -824,11 +824,11 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.005360187446780773</v>
+        <v>0.005346674963310927</v>
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.003282662554444548</v>
+        <v>0.003295601028065284</v>
       </c>
     </row>
     <row r="21">
@@ -839,11 +839,11 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06026043547996698</v>
+        <v>0.05771609078836373</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.04182371836118843</v>
+        <v>0.04024226146128384</v>
       </c>
     </row>
     <row r="22">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0028780206690614</v>
+        <v>0.003052684924121304</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.00995617547640518</v>
+        <v>0.0101246096579848</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.009226039832697748</v>
+        <v>0.00916851770897156</v>
       </c>
     </row>
     <row r="24">
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02810863720563303</v>
+        <v>0.02928305761367095</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05191012998061292</v>
+        <v>0.04687051270245307</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03194182722351061</v>
+        <v>0.03022370165662055</v>
       </c>
     </row>
     <row r="25">
@@ -919,7 +919,7 @@
         <v>0.00429436188122766</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.00515976572549316</v>
+        <v>0.005159765725493161</v>
       </c>
     </row>
     <row r="26">
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.001688273122365038</v>
+        <v>0.001683267877457995</v>
       </c>
     </row>
     <row r="27">
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01997109340239205</v>
+        <v>0.01758812916922674</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02166075583511336</v>
+        <v>0.02783920385573108</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01417618488219588</v>
+        <v>0.01371072250930023</v>
       </c>
     </row>
     <row r="28">
@@ -985,13 +985,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.006455447029263465</v>
+        <v>0.006723814262110123</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.004341245494498652</v>
+        <v>0.004624895301116283</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.006725425552698428</v>
+        <v>0.00671084512439418</v>
       </c>
     </row>
     <row r="30">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0163549431985714</v>
+        <v>0.01707535210493391</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.0156282319570901</v>
+        <v>0.01725153834037192</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01375845674012851</v>
+        <v>0.01415036658896434</v>
       </c>
     </row>
     <row r="31">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4307</v>
+        <v>4200</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>4411</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="8">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1505</v>
+        <v>1473</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3920</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="11">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14439</v>
+        <v>14797</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8803</v>
+        <v>9621</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18833</v>
+        <v>18951</v>
       </c>
     </row>
     <row r="12">
@@ -1294,11 +1294,11 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="15">
@@ -1309,11 +1309,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8091</v>
+        <v>8959</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>8179</v>
+        <v>8932</v>
       </c>
     </row>
     <row r="16">
@@ -1482,11 +1482,11 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="27">
@@ -1497,11 +1497,11 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8107</v>
+        <v>7765</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>9242</v>
+        <v>8892</v>
       </c>
     </row>
     <row r="28">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1100</v>
+        <v>1167</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3549</v>
+        <v>3609</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6817</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="31">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10748</v>
+        <v>11197</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>18504</v>
+        <v>16707</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>23600</v>
+        <v>22330</v>
       </c>
     </row>
     <row r="32">
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1287</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="35">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>9015</v>
+        <v>7939</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>6735</v>
+        <v>8656</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>10807</v>
+        <v>10452</v>
       </c>
     </row>
     <row r="36">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>12318</v>
+        <v>12830</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>6475</v>
+        <v>6898</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>22865</v>
+        <v>22815</v>
       </c>
     </row>
     <row r="39">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>31208</v>
+        <v>32583</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>23311</v>
+        <v>25732</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>46776</v>
+        <v>48108</v>
       </c>
     </row>
     <row r="40">
